--- a/P1/Assets/Resources/Data/ExcelData/HeroData.xlsx
+++ b/P1/Assets/Resources/Data/ExcelData/HeroData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.234.53029"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild=""/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HeroAttributeInfoData" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>EHeroAttrType</t>
   </si>
@@ -301,6 +301,15 @@
   </si>
   <si>
     <t>BossBattleTimeLimit</t>
+  </si>
+  <si>
+    <t>0&amp;10&amp;20&amp;40&amp;80</t>
+  </si>
+  <si>
+    <t>1&amp;4&amp;6&amp;8&amp;10</t>
+  </si>
+  <si>
+    <t>1&amp;10&amp;20&amp;40&amp;80</t>
   </si>
 </sst>
 </file>
@@ -1197,10 +1206,14 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="2" max="2" width="16.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="21.50499916" customWidth="1" outlineLevel="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="0" t="s">
@@ -1332,11 +1345,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="5" max="5" width="22.37999916" customWidth="1" outlineLevel="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="0" t="s">
@@ -1372,10 +1388,10 @@
         <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1392,10 +1408,10 @@
         <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1707,7 +1723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
